--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1224012.714688133</v>
+        <v>1222125.133171731</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -671,7 +671,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,16 +713,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>233.3621191562032</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>108.8640957525906</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>78.31629253725373</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>190.271393580297</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>324.060349394281</v>
+        <v>207.2096032800586</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>49.45256041645978</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>92.39306372366522</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>400.3885342695788</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>70.25847380620345</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>229.5889480231529</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6534898356755</v>
+        <v>143.3158222056517</v>
       </c>
     </row>
     <row r="14">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>122.2151751544597</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>33.35146980185863</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2002,22 +2002,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>196.0169703849663</v>
+        <v>33.35146980185885</v>
       </c>
     </row>
     <row r="20">
@@ -2239,10 +2239,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2299,10 +2299,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532055</v>
       </c>
       <c r="X22" t="n">
-        <v>98.00807076326798</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,10 +2476,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>122.6519788371598</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>169.827716759979</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>169.8277167599799</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>211.2541671901473</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>16.21734658703863</v>
+        <v>93.41221638965543</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801228</v>
+        <v>91.23070601801224</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437436</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348207</v>
+        <v>42.20569823125206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897924</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571509</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752359</v>
+        <v>54.76109577523587</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550464</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298324</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952711</v>
@@ -3013,7 +3013,7 @@
         <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604803</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
         <v>163.3813967235379</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857281</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789681</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463131</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463131</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373689</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1268.68094731003</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.68094731003</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2011.588934555955</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2011.588934555955</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1658.820279285841</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X2" t="n">
-        <v>1658.820279285841</v>
+        <v>1254.779875245437</v>
       </c>
       <c r="Y2" t="n">
-        <v>1268.68094731003</v>
+        <v>864.6405432696254</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,31 +4407,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>359.6044479702274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694736</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1700.479318410388</v>
+        <v>1185.96319079745</v>
       </c>
       <c r="C5" t="n">
-        <v>1331.516801469976</v>
+        <v>1185.96319079745</v>
       </c>
       <c r="D5" t="n">
-        <v>1331.516801469976</v>
+        <v>827.6974921906992</v>
       </c>
       <c r="E5" t="n">
-        <v>945.7285488717318</v>
+        <v>827.6974921906992</v>
       </c>
       <c r="F5" t="n">
-        <v>534.7426440821243</v>
+        <v>416.7115874010917</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W5" t="n">
-        <v>2090.6186503862</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X5" t="n">
-        <v>2090.6186503862</v>
+        <v>1576.102522773261</v>
       </c>
       <c r="Y5" t="n">
-        <v>1700.479318410388</v>
+        <v>1185.96319079745</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W7" t="n">
-        <v>149.5382038240415</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="X7" t="n">
-        <v>149.5382038240415</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1150.78176403888</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C8" t="n">
-        <v>1150.78176403888</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>792.5160654321296</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>792.5160654321296</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>785.5705646829261</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>1893.689751284806</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>1540.921096014692</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X8" t="n">
-        <v>1540.921096014692</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y8" t="n">
-        <v>1150.78176403888</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4890,10 +4890,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4902,28 +4902,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>373.0594214943678</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>373.0594214943678</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>627.7439097002547</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>627.7439097002547</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>627.7439097002547</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>627.7439097002547</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V10" t="n">
-        <v>373.0594214943678</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W10" t="n">
-        <v>373.0594214943678</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>373.0594214943678</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>373.0594214943678</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805475</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822467</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5072,19 +5072,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5121,10 +5121,10 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>326.249275617007</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>940.1463453738957</v>
       </c>
       <c r="M12" t="n">
         <v>1247.466478653857</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028587</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655736</v>
+        <v>531.397718270632</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286131</v>
+        <v>241.9805482336714</v>
       </c>
       <c r="X13" t="n">
-        <v>437.6964226305957</v>
+        <v>241.9805482336714</v>
       </c>
       <c r="Y13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5276,10 +5276,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514078</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>177.1795914149472</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>326.249275617007</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619856</v>
+        <v>940.1463453738957</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>973.0255547109412</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>804.0893717830343</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V16" t="n">
-        <v>1375.466598684711</v>
+        <v>420.3226148324572</v>
       </c>
       <c r="W16" t="n">
-        <v>1375.466598684711</v>
+        <v>130.9054447954966</v>
       </c>
       <c r="X16" t="n">
-        <v>1375.466598684711</v>
+        <v>130.9054447954966</v>
       </c>
       <c r="Y16" t="n">
-        <v>1154.674019541181</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5595,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1663.687808515591</v>
+        <v>2032.925401907738</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>711.3743239205528</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>542.4381409926459</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>542.4381409926459</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>394.5250474102528</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123424</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123424</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="U19" t="n">
-        <v>1164.055751909234</v>
+        <v>675.0071030383444</v>
       </c>
       <c r="V19" t="n">
-        <v>909.3712637033472</v>
+        <v>420.3226148324576</v>
       </c>
       <c r="W19" t="n">
-        <v>909.3712637033472</v>
+        <v>130.9054447954968</v>
       </c>
       <c r="X19" t="n">
-        <v>909.3712637033472</v>
+        <v>130.9054447954968</v>
       </c>
       <c r="Y19" t="n">
-        <v>711.3743239205528</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5783,16 +5783,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5829,16 +5829,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>485.5200852635876</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.417155020476</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N21" t="n">
         <v>1736.599915964471</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>566.6879222525851</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>397.7517393246782</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5914,46 +5914,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="V22" t="n">
-        <v>955.103143565574</v>
+        <v>531.397718270632</v>
       </c>
       <c r="W22" t="n">
-        <v>665.6859735286134</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>566.6879222525851</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>566.6879222525851</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5987,16 +5987,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6005,7 +6005,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.1532743881928</v>
+        <v>221.1079791745885</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>221.1079791745885</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6175,22 +6175,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1327.373122315499</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1038.244483529058</v>
+        <v>986.0022165609661</v>
       </c>
       <c r="V25" t="n">
-        <v>783.5599953231706</v>
+        <v>731.3177283550792</v>
       </c>
       <c r="W25" t="n">
-        <v>494.14282528621</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X25" t="n">
-        <v>266.1532743881928</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="Y25" t="n">
-        <v>266.1532743881928</v>
+        <v>221.1079791745885</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,34 +6242,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>745.6707680030239</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>266.1532743881927</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028591</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028596</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028596</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028596</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028596</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028596</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1327.373122315499</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1038.244483529057</v>
+        <v>786.0822064765183</v>
       </c>
       <c r="V28" t="n">
-        <v>783.5599953231705</v>
+        <v>531.3977182706315</v>
       </c>
       <c r="W28" t="n">
-        <v>494.1428252862099</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X28" t="n">
-        <v>266.1532743881926</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>266.1532743881926</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6440,10 +6440,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,46 +6452,46 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>672.9002034592866</v>
+        <v>439.5324299542158</v>
       </c>
       <c r="C31" t="n">
-        <v>559.7248858127502</v>
+        <v>326.3571123076796</v>
       </c>
       <c r="D31" t="n">
-        <v>543.343727644025</v>
+        <v>232.0013381767145</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430024</v>
+        <v>139.849109875692</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264627</v>
+        <v>139.849109875692</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276539</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569678</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.251007986467</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933499</v>
+        <v>369.0876362933498</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667505</v>
+        <v>671.4509053667504</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962046</v>
+        <v>997.6688721962045</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286023</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353691</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021646</v>
@@ -6652,19 +6652,19 @@
         <v>1568.628130167068</v>
       </c>
       <c r="U31" t="n">
-        <v>1568.628130167068</v>
+        <v>1335.260356661997</v>
       </c>
       <c r="V31" t="n">
-        <v>1369.704507242552</v>
+        <v>1136.336733737481</v>
       </c>
       <c r="W31" t="n">
-        <v>1136.048202486962</v>
+        <v>902.6804289818911</v>
       </c>
       <c r="X31" t="n">
-        <v>963.8195168703151</v>
+        <v>730.4517433652444</v>
       </c>
       <c r="Y31" t="n">
-        <v>798.7878030081556</v>
+        <v>565.4200295030849</v>
       </c>
     </row>
     <row r="32">
@@ -6692,37 +6692,37 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6835,19 +6835,19 @@
         <v>659.4602391108342</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229683</v>
+        <v>559.3441472229684</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506738</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083218</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504525</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103143</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6859,19 +6859,19 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
         <v>1932.236826184156</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859418</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045215</v>
+        <v>924.2611010045218</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010326</v>
+        <v>772.2886129010327</v>
       </c>
     </row>
     <row r="35">
@@ -6914,34 +6914,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382245</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6953,31 +6953,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7002,37 +7002,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,58 +7069,58 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103126</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7151,52 +7151,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E40" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7327,55 +7327,55 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7403,58 +7403,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1771.104817265284</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2050.644882483981</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7546,28 +7546,28 @@
         <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254958</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>223.155231313709</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>634.0455001582217</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
@@ -7825,31 +7825,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8538,13 +8538,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,13 +8769,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>38.8600230194987</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>38.8600230194987</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>96.03744927814688</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9170,10 +9170,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9243,22 +9243,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>73.64859338270662</v>
+        <v>19.14409596997035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9477,19 +9477,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>73.64859338270662</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>306.1147370139961</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627448</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9951,16 +9951,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>213.2603911806632</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>277.671796620807</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10425,16 +10425,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>202.5230052237941</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714817</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>213.260391180663</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>283.6093329825497</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>85.30006332127833</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23464,10 +23464,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.93116351641928</v>
+        <v>75.26883114644312</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>129.9224681693683</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>185.2331835502362</v>
       </c>
     </row>
     <row r="17">
@@ -23890,22 +23890,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,25 +23938,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>22.56768296712849</v>
+        <v>185.2331835502359</v>
       </c>
     </row>
     <row r="20">
@@ -24127,10 +24127,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,10 +24175,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="X22" t="n">
-        <v>127.7015846257692</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24364,10 +24364,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>25.96349418105255</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24415,7 +24415,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>51.71984429841023</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>51.71984429840924</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>75.26883114644366</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>77.19486980261684</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437432</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>69.0846136035686</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.7105717389792</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571505</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700205</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-9.683365348466374e-13</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>-1.350599632132798e-12</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>965150.1343228187</v>
+        <v>965150.1343228188</v>
       </c>
     </row>
     <row r="10">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="C2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="D2" t="n">
         <v>431046.9291787487</v>
@@ -26326,22 +26326,22 @@
         <v>410580.5127245943</v>
       </c>
       <c r="G2" t="n">
-        <v>410580.5127245942</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="H2" t="n">
         <v>410580.5127245943</v>
       </c>
       <c r="I2" t="n">
-        <v>410580.5127245942</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="J2" t="n">
         <v>410580.5127245943</v>
       </c>
       <c r="K2" t="n">
-        <v>427163.2442125332</v>
+        <v>427163.2442125333</v>
       </c>
       <c r="L2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787488</v>
       </c>
       <c r="M2" t="n">
         <v>431046.9291787487</v>
@@ -26350,7 +26350,7 @@
         <v>431046.9291787487</v>
       </c>
       <c r="O2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="P2" t="n">
         <v>431046.9291787487</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284548</v>
+        <v>44162.60530284554</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086702</v>
+        <v>10342.90680086712</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284551</v>
+        <v>44162.60530284556</v>
       </c>
     </row>
     <row r="4">
@@ -26421,7 +26421,7 @@
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
         <v>7916.731656007483</v>
@@ -26430,34 +26430,34 @@
         <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007501</v>
+        <v>7916.731656007496</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007498</v>
+        <v>7916.731656007497</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007456</v>
+        <v>7916.731656007536</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020396</v>
+        <v>26081.35417020403</v>
       </c>
       <c r="L4" t="n">
         <v>30335.51889732797</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732802</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="N4" t="n">
         <v>30335.51889732797</v>
       </c>
       <c r="O4" t="n">
+        <v>30335.51889732794</v>
+      </c>
+      <c r="P4" t="n">
         <v>30335.51889732797</v>
-      </c>
-      <c r="P4" t="n">
-        <v>30335.51889732798</v>
       </c>
     </row>
     <row r="5">
@@ -26488,28 +26488,28 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022276</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="M5" t="n">
-        <v>97715.10582002538</v>
-      </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26522,34 +26522,34 @@
         <v>-389697.0768151261</v>
       </c>
       <c r="C6" t="n">
-        <v>200270.8023994183</v>
+        <v>200270.8023994184</v>
       </c>
       <c r="D6" t="n">
-        <v>200270.8023994184</v>
+        <v>200270.8023994185</v>
       </c>
       <c r="E6" t="n">
-        <v>-214483.5813570261</v>
+        <v>-214581.0404829983</v>
       </c>
       <c r="F6" t="n">
-        <v>310676.4551198703</v>
+        <v>310578.995993898</v>
       </c>
       <c r="G6" t="n">
-        <v>310676.45511987</v>
+        <v>310578.9959938981</v>
       </c>
       <c r="H6" t="n">
-        <v>310676.4551198703</v>
+        <v>310578.9959938981</v>
       </c>
       <c r="I6" t="n">
-        <v>310676.4551198701</v>
+        <v>310578.995993898</v>
       </c>
       <c r="J6" t="n">
-        <v>134253.2359272771</v>
+        <v>134155.7768013051</v>
       </c>
       <c r="K6" t="n">
-        <v>260291.076209261</v>
+        <v>260272.5824713266</v>
       </c>
       <c r="L6" t="n">
-        <v>292653.3976605284</v>
+        <v>292653.3976605283</v>
       </c>
       <c r="M6" t="n">
         <v>168195.2892275582</v>
@@ -26558,7 +26558,7 @@
         <v>302996.3044613954</v>
       </c>
       <c r="O6" t="n">
-        <v>302996.3044613952</v>
+        <v>302996.3044613954</v>
       </c>
       <c r="P6" t="n">
         <v>258833.6991585498</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26756,25 +26756,25 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855684</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108378</v>
+        <v>12.92863350108375</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855696</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990175</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855684</v>
+        <v>55.20325662855693</v>
       </c>
     </row>
     <row r="3">
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,16 +27433,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>17.86204835208611</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>260.8670049258785</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,10 +27540,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>70.29918048095863</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>28.31325977179779</v>
       </c>
     </row>
     <row r="5">
@@ -27616,19 +27616,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>89.72382062651394</v>
+        <v>206.5745667407363</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27664,13 +27664,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27825,22 +27825,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>237.0704379201312</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>123.9453835684545</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>290.3407779398153</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>13.39563575121616</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>76.4067181739544</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,13 +28068,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>22.54869530067506</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29287,13 +29287,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855693</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855689</v>
+        <v>55.20325662855693</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="42">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35258,13 +35258,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35489,13 +35489,13 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>189.4354616074379</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
         <v>812.5369477415665</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>80.77020197440538</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2951542341712</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,10 +35890,10 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
         <v>713.1546070951472</v>
@@ -35963,22 +35963,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>356.0122956238148</v>
+        <v>301.5077982110785</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
         <v>88.01303278507413</v>
@@ -36121,7 +36121,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>224.2240319706459</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>639.309310412009</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110549</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,19 +36595,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951466</v>
       </c>
       <c r="P26" t="n">
         <v>570.6060255109123</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>462.5180961366875</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768313</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412242</v>
+        <v>67.71102679412245</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584675</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043165</v>
+        <v>94.42895660043168</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,19 +37069,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P32" t="n">
         <v>570.6060255109123</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>409.6164201553188</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37321,13 +37321,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980128</v>
@@ -37637,7 +37637,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>420.3538061121876</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>490.7027479140744</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>127.210242276185</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
